--- a/inputdata/LRVs_forQMRA.xlsx
+++ b/inputdata/LRVs_forQMRA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvic-my.sharepoint.com/personal/camillezimmer_uvic_ca/Documents/U Vic/PhD/QMRA Interests/QMRA_labvsfield/inputdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvic-my.sharepoint.com/personal/camillezimmer_uvic_ca/Documents/U Vic/PhD/QMRA Interests/QMRA_labvsfield_GitHubR/inputdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{C0AF829F-31D5-4FE9-A657-0C39B3555F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2978A62-E540-4D65-BB3E-CE8414D1ACBC}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{C0AF829F-31D5-4FE9-A657-0C39B3555F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BEBD31-9DB7-496A-B461-363D4A3E17D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88FF1F43-083D-488D-9CAE-6C8919D2720E}"/>
+    <workbookView xWindow="-3758" yWindow="8002" windowWidth="21796" windowHeight="12975" xr2:uid="{88FF1F43-083D-488D-9CAE-6C8919D2720E}"/>
   </bookViews>
   <sheets>
     <sheet name="LRVs" sheetId="3" r:id="rId1"/>
@@ -698,9 +698,6 @@
     <t>solomon_XA</t>
   </si>
   <si>
-    <t>survivor_prox </t>
-  </si>
-  <si>
     <t>unknown_tabs</t>
   </si>
   <si>
@@ -732,6 +729,9 @@
   </si>
   <si>
     <t>Ecoli</t>
+  </si>
+  <si>
+    <t>survivor_prox</t>
   </si>
 </sst>
 </file>
@@ -854,9 +854,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0071FF42-7F6F-4E7E-9044-D16DC9FF360C}" name="Table14" displayName="Table14" ref="A6:L264" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A6:L264" xr:uid="{3A96111D-FCA0-43CC-B77A-952DF9648C00}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:L264">
-    <sortCondition ref="D6:D264"/>
+  <autoFilter ref="A6:L264" xr:uid="{3A96111D-FCA0-43CC-B77A-952DF9648C00}">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:L264">
+    <sortCondition ref="G6:G264"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{1F537F8A-2070-4501-A40E-E3CEC2CE314D}" name="interview_ID"/>
@@ -1177,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3817F4DF-A89A-4EA4-A6A2-81DCCC5D3614}">
   <dimension ref="A1:L264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D232" workbookViewId="0">
+      <selection activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,19 +1195,19 @@
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="24.5703125" customWidth="1"/>
     <col min="13" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1227,22 +1233,22 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>194</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I7">
         <v>1.161327416</v>
@@ -1274,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8">
         <v>2.295363445</v>
@@ -1329,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I9">
         <v>1.7611179109999999</v>
@@ -1347,7 +1353,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>151</v>
@@ -1356,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -1368,34 +1374,34 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I10">
-        <v>1.3565473240000001</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>12</v>
+        <v>4.0791812460000001</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.6434526759999999</v>
+        <v>1.0791812460000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1407,34 +1413,34 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I11">
-        <v>4.0791812460000001</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>11</v>
+        <v>3.7283537820000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.0791812460000001</v>
+        <v>0.72835378200000012</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -1446,34 +1452,34 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I12">
-        <v>2.397940009</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
+        <v>3.301029996</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.602059991</v>
+        <v>0.30102999600000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -1485,34 +1491,34 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I13">
-        <v>3.7283537820000001</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
+        <v>2.5211097229999999</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.72835378200000012</v>
+        <v>-0.47889027700000009</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -1524,34 +1530,34 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I14">
-        <v>4.1858253599999999</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
+        <v>2.6809468999999999</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.8141746400000001</v>
+        <v>-0.31905310000000009</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -1563,34 +1569,34 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I15">
-        <v>3.301029996</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
+        <v>2.2218487499999999</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.30102999600000002</v>
+        <v>-0.77815125000000007</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -1602,34 +1608,34 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I16">
-        <v>4.6232492900000004</v>
+        <v>5.2355284470000001</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.3767507099999996</v>
+        <v>2.2355284470000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -1641,34 +1647,34 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I17">
-        <v>2.5211097229999999</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>12</v>
+        <v>2.8252637950000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.47889027700000009</v>
+        <v>-0.17473620499999987</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -1680,34 +1686,34 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I18">
-        <v>0.52527275799999995</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
+        <v>1.6882461390000001</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-5.4747272420000002</v>
+        <v>-1.3117538609999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -1719,34 +1725,34 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I19">
-        <v>2.6809468999999999</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>12</v>
+        <v>3.903089987</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.31905310000000009</v>
+        <v>0.90308998699999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -1758,34 +1764,34 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
+        <v>1.3565473240000001</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K20">
         <v>6</v>
       </c>
       <c r="L20">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3</v>
+        <v>-4.6434526759999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -1797,34 +1803,34 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I21">
-        <v>2.2218487499999999</v>
+        <v>2.397940009</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.77815125000000007</v>
+        <v>-3.602059991</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -1836,34 +1842,34 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I22">
-        <v>3.085712113</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
+        <v>4.1858253599999999</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K22">
         <v>6</v>
       </c>
       <c r="L22">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.914287887</v>
+        <v>-1.8141746400000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
@@ -1875,34 +1881,34 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I23">
-        <v>5.2355284470000001</v>
+        <v>4.6232492900000004</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.2355284470000001</v>
+        <v>-1.3767507099999996</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
@@ -1914,10 +1920,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I24">
-        <v>3.096910013</v>
+        <v>0.52527275799999995</v>
       </c>
       <c r="J24" t="s">
         <v>10</v>
@@ -1927,21 +1933,21 @@
       </c>
       <c r="L24">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.903089987</v>
+        <v>-5.4747272420000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>7</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -1953,34 +1959,34 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I25">
-        <v>2.8252637950000001</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>10</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.17473620499999987</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
@@ -1992,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I26">
-        <v>3.2496059540000002</v>
+        <v>3.085712113</v>
       </c>
       <c r="J26" t="s">
         <v>10</v>
@@ -2005,21 +2011,21 @@
       </c>
       <c r="L26">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.7503940459999998</v>
+        <v>-2.914287887</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
@@ -2031,34 +2037,34 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I27">
-        <v>1.6882461390000001</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>12</v>
+        <v>3.096910013</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.3117538609999999</v>
+        <v>-2.903089987</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -2070,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I28">
-        <v>3.5051499779999999</v>
+        <v>3.2496059540000002</v>
       </c>
       <c r="J28" t="s">
         <v>10</v>
@@ -2083,21 +2089,21 @@
       </c>
       <c r="L28">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.4948500220000001</v>
+        <v>-2.7503940459999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -2109,20 +2115,20 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I29">
-        <v>3.903089987</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
+        <v>3.5051499779999999</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.90308998699999998</v>
+        <v>-2.4948500220000001</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2148,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I30">
         <v>4.322219295</v>
@@ -2187,16 +2193,23 @@
         <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I31">
-        <v>5.6901960799999998</v>
+        <v>3.1251558300000002</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
+        <v>-2.8748441699999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -2219,20 +2232,13 @@
         <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I32">
-        <v>3.1251558300000002</v>
+        <v>5.6901960799999998</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="K32">
-        <v>6</v>
-      </c>
-      <c r="L32">
-        <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.8748441699999998</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2258,7 +2264,7 @@
         <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I33">
         <v>0.432973634</v>
@@ -2276,16 +2282,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -2297,34 +2303,34 @@
         <v>196</v>
       </c>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I34">
-        <v>1.214670165</v>
+        <v>2.8154755730000001</v>
       </c>
       <c r="J34" t="s">
         <v>10</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.7853298349999998</v>
+        <v>-0.18452442699999994</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
@@ -2336,10 +2342,10 @@
         <v>196</v>
       </c>
       <c r="H35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I35">
-        <v>2.8154755730000001</v>
+        <v>3.0057984100000001</v>
       </c>
       <c r="J35" t="s">
         <v>10</v>
@@ -2349,21 +2355,21 @@
       </c>
       <c r="L35">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.18452442699999994</v>
+        <v>5.7984100000001426E-3</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -2375,34 +2381,34 @@
         <v>196</v>
       </c>
       <c r="H36" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I36">
-        <v>2.005395032</v>
-      </c>
-      <c r="J36" t="s">
-        <v>10</v>
+        <v>3.602059991</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.994604968</v>
+        <v>0.60205999099999996</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -2414,34 +2420,34 @@
         <v>196</v>
       </c>
       <c r="H37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I37">
-        <v>3.0057984100000001</v>
-      </c>
-      <c r="J37" t="s">
-        <v>10</v>
+        <v>4.3304137730000001</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>5.7984100000001426E-3</v>
+        <v>1.3304137730000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -2453,25 +2459,25 @@
         <v>196</v>
       </c>
       <c r="H38" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I38">
-        <v>2.0824922749999999</v>
-      </c>
-      <c r="J38" t="s">
-        <v>10</v>
+        <v>5.3909351069999998</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.9175077250000001</v>
+        <v>2.3909351069999998</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>170</v>
@@ -2480,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -2492,34 +2498,34 @@
         <v>196</v>
       </c>
       <c r="H39" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I39">
-        <v>3.602059991</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>11</v>
+        <v>1.214670165</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.60205999099999996</v>
+        <v>-4.7853298349999998</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -2531,10 +2537,10 @@
         <v>196</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I40">
-        <v>2.5228787449999999</v>
+        <v>2.005395032</v>
       </c>
       <c r="J40" t="s">
         <v>10</v>
@@ -2544,21 +2550,21 @@
       </c>
       <c r="L40">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.4771212550000001</v>
+        <v>-3.994604968</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -2570,34 +2576,34 @@
         <v>196</v>
       </c>
       <c r="H41" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I41">
-        <v>4.3304137730000001</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
+        <v>2.0824922749999999</v>
+      </c>
+      <c r="J41" t="s">
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L41">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.3304137730000001</v>
+        <v>-3.9175077250000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -2609,10 +2615,10 @@
         <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I42">
-        <v>2.6853345239999999</v>
+        <v>2.5228787449999999</v>
       </c>
       <c r="J42" t="s">
         <v>10</v>
@@ -2622,21 +2628,21 @@
       </c>
       <c r="L42">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.3146654760000001</v>
+        <v>-3.4771212550000001</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -2648,20 +2654,20 @@
         <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I43">
-        <v>5.3909351069999998</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
+        <v>2.6853345239999999</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L43">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.3909351069999998</v>
+        <v>-3.3146654760000001</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2687,7 +2693,7 @@
         <v>196</v>
       </c>
       <c r="H44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I44">
         <v>5.1271047980000004</v>
@@ -2726,7 +2732,7 @@
         <v>197</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I45">
         <v>4.8573324959999997</v>
@@ -2765,7 +2771,7 @@
         <v>197</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I46">
         <v>1.7272158209999999</v>
@@ -2781,7 +2787,7 @@
         <v>-4.2727841790000003</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>211</v>
       </c>
       <c r="H47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I47">
         <v>4.3304137730000001</v>
@@ -2813,7 +2819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I48">
         <v>3.282735373</v>
@@ -2868,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I49">
         <v>4.0791812460000001</v>
@@ -2886,16 +2892,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -2907,34 +2913,34 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I50">
-        <v>1.8538719640000001</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>12</v>
+        <v>5.1743505970000001</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L50">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.1461280360000003</v>
+        <v>2.1743505970000001</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -2946,10 +2952,10 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I51">
-        <v>5.1743505970000001</v>
+        <v>3.602059991</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>11</v>
@@ -2959,21 +2965,21 @@
       </c>
       <c r="L51">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.1743505970000001</v>
+        <v>0.60205999099999996</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -2985,34 +2991,34 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I52">
-        <v>2.7781512500000001</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>10</v>
       </c>
       <c r="K52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L52">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.2218487499999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
@@ -3024,34 +3030,34 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I53">
-        <v>3.602059991</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>11</v>
+        <v>2.8832557419999998</v>
+      </c>
+      <c r="J53" t="s">
+        <v>10</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.60205999099999996</v>
+        <v>-0.11674425800000021</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -3063,34 +3069,34 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I54">
-        <v>3.301029996</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
+        <v>4.1760912589999997</v>
+      </c>
+      <c r="J54" t="s">
+        <v>10</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L54">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.698970004</v>
+        <v>1.1760912589999997</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -3102,34 +3108,34 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55" t="s">
-        <v>10</v>
+        <v>3.903089987</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0</v>
+        <v>0.90308998699999998</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -3141,34 +3147,34 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I56">
-        <v>3.301029996</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
+        <v>3.84394759</v>
+      </c>
+      <c r="J56" t="s">
+        <v>10</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L56">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.698970004</v>
+        <v>0.84394758999999997</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -3180,10 +3186,10 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I57">
-        <v>2.8832557419999998</v>
+        <v>3.7941393560000001</v>
       </c>
       <c r="J57" t="s">
         <v>10</v>
@@ -3193,21 +3199,21 @@
       </c>
       <c r="L57">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.11674425800000021</v>
+        <v>0.79413935600000007</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -3219,34 +3225,34 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I58">
-        <v>4.1858253599999999</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
+        <v>4.7708520119999998</v>
+      </c>
+      <c r="J58" t="s">
+        <v>10</v>
       </c>
       <c r="K58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L58">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.8141746400000001</v>
+        <v>1.7708520119999998</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -3258,34 +3264,34 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I59">
-        <v>4.1760912589999997</v>
-      </c>
-      <c r="J59" t="s">
-        <v>10</v>
+        <v>5.6901960799999998</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.1760912589999997</v>
+        <v>2.6901960799999998</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -3297,34 +3303,34 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I60">
-        <v>4.4771212550000001</v>
+        <v>5.6901960799999998</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L60">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.5228787449999999</v>
+        <v>2.6901960799999998</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -3336,10 +3342,10 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I61">
-        <v>3.903089987</v>
+        <v>3.602059991</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>11</v>
@@ -3349,21 +3355,21 @@
       </c>
       <c r="L61">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.90308998699999998</v>
+        <v>0.60205999099999996</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -3375,34 +3381,34 @@
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I62">
-        <v>4.6232492900000004</v>
+        <v>4.3304137730000001</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.3767507099999996</v>
+        <v>1.3304137730000001</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -3414,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I63">
-        <v>3.84394759</v>
+        <v>3.4771212550000001</v>
       </c>
       <c r="J63" t="s">
         <v>10</v>
@@ -3427,21 +3433,21 @@
       </c>
       <c r="L63">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.84394758999999997</v>
+        <v>0.47712125500000013</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -3453,34 +3459,34 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I64">
-        <v>4.9768083369999996</v>
+        <v>5.2355284470000001</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L64">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.0231916630000004</v>
+        <v>2.2355284470000001</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
       <c r="D65">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -3492,10 +3498,10 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I65">
-        <v>3.7941393560000001</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>10</v>
@@ -3505,21 +3511,21 @@
       </c>
       <c r="L65">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.79413935600000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -3531,34 +3537,34 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I66">
-        <v>0.54262280299999999</v>
-      </c>
-      <c r="J66" t="s">
-        <v>10</v>
+        <v>3.903089987</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-5.4573771969999996</v>
+        <v>0.90308998699999998</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
@@ -3570,34 +3576,34 @@
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I67">
-        <v>4.7708520119999998</v>
-      </c>
-      <c r="J67" t="s">
-        <v>10</v>
+        <v>3.903089987</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.7708520119999998</v>
+        <v>0.90308998699999998</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -3609,34 +3615,34 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I68">
-        <v>2</v>
-      </c>
-      <c r="J68" t="s">
-        <v>10</v>
+        <v>5.3909351069999998</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L68">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4</v>
+        <v>2.3909351069999998</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -3648,34 +3654,34 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I69">
-        <v>5.6901960799999998</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>11</v>
+        <v>1.8538719640000001</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L69">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.6901960799999998</v>
+        <v>-4.1461280360000003</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -3687,34 +3693,34 @@
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I70">
-        <v>2.2220658430000002</v>
-      </c>
-      <c r="J70" t="s">
-        <v>10</v>
+        <v>2.7781512500000001</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K70">
         <v>6</v>
       </c>
       <c r="L70">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.7779341569999998</v>
+        <v>-3.2218487499999999</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C71">
         <v>11</v>
       </c>
       <c r="D71">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -3726,34 +3732,34 @@
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I71">
-        <v>5.6901960799999998</v>
+        <v>3.301029996</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.6901960799999998</v>
+        <v>-2.698970004</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C72">
         <v>11</v>
       </c>
       <c r="D72">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -3765,34 +3771,34 @@
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I72">
-        <v>2.5230958380000001</v>
-      </c>
-      <c r="J72" t="s">
-        <v>10</v>
+        <v>3.301029996</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K72">
         <v>6</v>
       </c>
       <c r="L72">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.4769041619999999</v>
+        <v>-2.698970004</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -3804,34 +3810,34 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I73">
-        <v>3.602059991</v>
+        <v>4.1858253599999999</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L73">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.60205999099999996</v>
+        <v>-1.8141746400000001</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -3843,34 +3849,34 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I74">
-        <v>3</v>
-      </c>
-      <c r="J74" t="s">
-        <v>10</v>
+        <v>4.4771212550000001</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K74">
         <v>6</v>
       </c>
       <c r="L74">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3</v>
+        <v>-1.5228787449999999</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -3882,34 +3888,34 @@
         <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I75">
-        <v>4.3304137730000001</v>
+        <v>4.6232492900000004</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L75">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.3304137730000001</v>
+        <v>-1.3767507099999996</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -3921,34 +3927,34 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I76">
-        <v>3.1066441139999998</v>
-      </c>
-      <c r="J76" t="s">
-        <v>10</v>
+        <v>4.9768083369999996</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K76">
         <v>6</v>
       </c>
       <c r="L76">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.8933558860000002</v>
+        <v>-1.0231916630000004</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>6</v>
       </c>
       <c r="D77">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -3960,34 +3966,34 @@
         <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I77">
-        <v>3.4771212550000001</v>
+        <v>0.54262280299999999</v>
       </c>
       <c r="J77" t="s">
         <v>10</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L77">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.47712125500000013</v>
+        <v>-5.4573771969999996</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -3999,10 +4005,10 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I78">
-        <v>3.204119983</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>10</v>
@@ -4012,21 +4018,21 @@
       </c>
       <c r="L78">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.795880017</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -4038,34 +4044,34 @@
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I79">
-        <v>5.2355284470000001</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>11</v>
+        <v>2.2220658430000002</v>
+      </c>
+      <c r="J79" t="s">
+        <v>10</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L79">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.2355284470000001</v>
+        <v>-3.7779341569999998</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D80">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -4077,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I80">
-        <v>3.397940009</v>
+        <v>2.5230958380000001</v>
       </c>
       <c r="J80" t="s">
         <v>10</v>
@@ -4090,21 +4096,21 @@
       </c>
       <c r="L80">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.602059991</v>
+        <v>-3.4769041619999999</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -4116,7 +4122,7 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -4125,25 +4131,25 @@
         <v>10</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L81">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -4155,10 +4161,10 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I82">
-        <v>3.7895807119999998</v>
+        <v>3.1066441139999998</v>
       </c>
       <c r="J82" t="s">
         <v>10</v>
@@ -4168,21 +4174,21 @@
       </c>
       <c r="L82">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.2104192880000002</v>
+        <v>-2.8933558860000002</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -4194,34 +4200,34 @@
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I83">
-        <v>3.903089987</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
+        <v>3.204119983</v>
+      </c>
+      <c r="J83" t="s">
+        <v>10</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L83">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.90308998699999998</v>
+        <v>-2.795880017</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -4233,10 +4239,10 @@
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I84">
-        <v>3.8450980399999999</v>
+        <v>3.397940009</v>
       </c>
       <c r="J84" t="s">
         <v>10</v>
@@ -4246,21 +4252,21 @@
       </c>
       <c r="L84">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.1549019600000001</v>
+        <v>-2.602059991</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -4272,25 +4278,25 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I85">
-        <v>3.903089987</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
+        <v>3.7895807119999998</v>
+      </c>
+      <c r="J85" t="s">
+        <v>10</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L85">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.90308998699999998</v>
+        <v>-2.2104192880000002</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
         <v>66</v>
@@ -4299,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -4311,10 +4317,10 @@
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I86">
-        <v>4.322219295</v>
+        <v>3.8450980399999999</v>
       </c>
       <c r="J86" t="s">
         <v>10</v>
@@ -4324,21 +4330,21 @@
       </c>
       <c r="L86">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.677780705</v>
+        <v>-2.1549019600000001</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -4350,20 +4356,20 @@
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I87">
-        <v>5.3909351069999998</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>11</v>
+        <v>4.322219295</v>
+      </c>
+      <c r="J87" t="s">
+        <v>10</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L87">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.3909351069999998</v>
+        <v>-1.677780705</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4389,7 +4395,7 @@
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I88">
         <v>4.3489535479999999</v>
@@ -4405,7 +4411,7 @@
         <v>-1.6510464520000001</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>198</v>
       </c>
       <c r="H89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I89">
         <v>4.1139433519999997</v>
@@ -4437,7 +4443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>198</v>
       </c>
       <c r="H90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I90">
         <v>4.7895807120000002</v>
@@ -4492,7 +4498,7 @@
         <v>199</v>
       </c>
       <c r="H91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -4510,16 +4516,16 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -4531,34 +4537,34 @@
         <v>199</v>
       </c>
       <c r="H92" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I92">
-        <v>2.1832698439999998</v>
-      </c>
-      <c r="J92" t="s">
-        <v>10</v>
+        <v>5.6901960799999998</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.8167301560000002</v>
+        <v>2.6901960799999998</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -4570,34 +4576,34 @@
         <v>199</v>
       </c>
       <c r="H93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I93">
-        <v>5.6901960799999998</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="K93">
         <v>3</v>
       </c>
       <c r="L93">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.6901960799999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -4609,25 +4615,25 @@
         <v>199</v>
       </c>
       <c r="H94" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I94">
-        <v>2.5230958380000001</v>
-      </c>
-      <c r="J94" t="s">
-        <v>10</v>
+        <v>5.3909351069999998</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L94">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.4769041619999999</v>
+        <v>2.3909351069999998</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
         <v>122</v>
@@ -4636,7 +4642,7 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -4648,34 +4654,34 @@
         <v>199</v>
       </c>
       <c r="H95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I95">
-        <v>3</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>13</v>
+        <v>2.1832698439999998</v>
+      </c>
+      <c r="J95" t="s">
+        <v>10</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L95">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0</v>
+        <v>-3.8167301560000002</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -4687,10 +4693,10 @@
         <v>199</v>
       </c>
       <c r="H96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I96">
-        <v>2.9614210939999999</v>
+        <v>2.5230958380000001</v>
       </c>
       <c r="J96" t="s">
         <v>10</v>
@@ -4700,21 +4706,21 @@
       </c>
       <c r="L96">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.0385789060000001</v>
+        <v>-3.4769041619999999</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -4726,20 +4732,20 @@
         <v>199</v>
       </c>
       <c r="H97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I97">
-        <v>5.3909351069999998</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
+        <v>2.9614210939999999</v>
+      </c>
+      <c r="J97" t="s">
+        <v>10</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L97">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.3909351069999998</v>
+        <v>-3.0385789060000001</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4765,7 +4771,7 @@
         <v>199</v>
       </c>
       <c r="H98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I98">
         <v>4.826074803</v>
@@ -4781,7 +4787,7 @@
         <v>-1.173925197</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>200</v>
       </c>
       <c r="H99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I99">
         <v>1.657577319</v>
@@ -4813,7 +4819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>200</v>
       </c>
       <c r="H100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I100">
         <v>2.096910013</v>
@@ -4845,7 +4851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -4868,7 +4874,7 @@
         <v>200</v>
       </c>
       <c r="H101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I101">
         <v>4.2712606099999997</v>
@@ -4877,7 +4883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -4900,7 +4906,7 @@
         <v>200</v>
       </c>
       <c r="H102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I102">
         <v>2.4771212550000001</v>
@@ -4932,7 +4938,7 @@
         <v>201</v>
       </c>
       <c r="H103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I103">
         <v>2.5211097229999999</v>
@@ -4950,16 +4956,16 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
@@ -4971,34 +4977,34 @@
         <v>201</v>
       </c>
       <c r="H104" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I104">
-        <v>1.6200058509999999</v>
+        <v>3.4666558209999998</v>
       </c>
       <c r="J104" t="s">
         <v>10</v>
       </c>
       <c r="K104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L104">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.3799941489999998</v>
+        <v>0.4666558209999998</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -5010,10 +5016,10 @@
         <v>201</v>
       </c>
       <c r="H105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I105">
-        <v>3.4666558209999998</v>
+        <v>2.5850266519999998</v>
       </c>
       <c r="J105" t="s">
         <v>10</v>
@@ -5023,21 +5029,21 @@
       </c>
       <c r="L105">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.4666558209999998</v>
+        <v>-0.41497334800000019</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -5049,10 +5055,10 @@
         <v>201</v>
       </c>
       <c r="H106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I106">
-        <v>3.9809767630000001</v>
+        <v>1.6200058509999999</v>
       </c>
       <c r="J106" t="s">
         <v>10</v>
@@ -5062,21 +5068,21 @@
       </c>
       <c r="L106">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.0190232369999999</v>
+        <v>-4.3799941489999998</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -5088,20 +5094,20 @@
         <v>201</v>
       </c>
       <c r="H107" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I107">
-        <v>2.5850266519999998</v>
+        <v>3.9809767630000001</v>
       </c>
       <c r="J107" t="s">
         <v>10</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L107">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.41497334800000019</v>
+        <v>-2.0190232369999999</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -5127,7 +5133,7 @@
         <v>201</v>
       </c>
       <c r="H108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I108">
         <v>4.3448832790000003</v>
@@ -5143,7 +5149,7 @@
         <v>-1.6551167209999997</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>134</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>202</v>
       </c>
       <c r="H109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I109">
         <v>2.6809468999999999</v>
@@ -5175,7 +5181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -5198,7 +5204,7 @@
         <v>202</v>
       </c>
       <c r="H110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I110">
         <v>0.76785129399999996</v>
@@ -5230,7 +5236,7 @@
         <v>203</v>
       </c>
       <c r="H111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I111">
         <v>4.0791812460000001</v>
@@ -5269,7 +5275,7 @@
         <v>203</v>
       </c>
       <c r="H112" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I112">
         <v>1.5528419689999999</v>
@@ -5308,7 +5314,7 @@
         <v>204</v>
       </c>
       <c r="H113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I113">
         <v>3.7781512500000001</v>
@@ -5347,7 +5353,7 @@
         <v>204</v>
       </c>
       <c r="H114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I114">
         <v>4.3802112419999997</v>
@@ -5386,7 +5392,7 @@
         <v>205</v>
       </c>
       <c r="H115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I115">
         <v>5.8500332579999998</v>
@@ -5404,16 +5410,16 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D116">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
@@ -5425,34 +5431,34 @@
         <v>205</v>
       </c>
       <c r="H116" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I116">
-        <v>3.7781512500000001</v>
+        <v>4.3010299959999996</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L116">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.2218487499999999</v>
+        <v>1.3010299959999996</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D117">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
@@ -5464,20 +5470,20 @@
         <v>205</v>
       </c>
       <c r="H117" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I117">
-        <v>4.3010299959999996</v>
+        <v>3.7781512500000001</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L117">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.3010299959999996</v>
+        <v>-2.2218487499999999</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5503,7 +5509,7 @@
         <v>205</v>
       </c>
       <c r="H118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I118">
         <v>3.8769054039999999</v>
@@ -5542,7 +5548,7 @@
         <v>206</v>
       </c>
       <c r="H119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I119">
         <v>3.698970004</v>
@@ -5581,7 +5587,7 @@
         <v>206</v>
       </c>
       <c r="H120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I120">
         <v>3.895790748</v>
@@ -5620,7 +5626,7 @@
         <v>207</v>
       </c>
       <c r="H121" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I121">
         <v>2.1153934190000001</v>
@@ -5638,16 +5644,16 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
         <v>59</v>
-      </c>
-      <c r="B122" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122">
-        <v>5</v>
-      </c>
-      <c r="D122">
-        <v>58</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
@@ -5659,34 +5665,34 @@
         <v>207</v>
       </c>
       <c r="H122" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I122">
-        <v>2.2220658430000002</v>
+        <v>2.649172536</v>
       </c>
       <c r="J122" t="s">
         <v>10</v>
       </c>
       <c r="K122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L122">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.7779341569999998</v>
+        <v>-0.35082746399999998</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D123">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -5698,10 +5704,10 @@
         <v>207</v>
       </c>
       <c r="H123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I123">
-        <v>2.649172536</v>
+        <v>4.1868151239999998</v>
       </c>
       <c r="J123" t="s">
         <v>10</v>
@@ -5711,21 +5717,21 @@
       </c>
       <c r="L123">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.35082746399999998</v>
+        <v>1.1868151239999998</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
       <c r="D124">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -5737,34 +5743,34 @@
         <v>207</v>
       </c>
       <c r="H124" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I124">
-        <v>2.9305528550000002</v>
-      </c>
-      <c r="J124" t="s">
-        <v>10</v>
+        <v>4.0791812460000001</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.0694471449999998</v>
+        <v>1.0791812460000001</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D125">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -5776,34 +5782,34 @@
         <v>207</v>
       </c>
       <c r="H125" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I125">
-        <v>4.1868151239999998</v>
+        <v>2.2220658430000002</v>
       </c>
       <c r="J125" t="s">
         <v>10</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L125">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.1868151239999998</v>
+        <v>-3.7779341569999998</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
@@ -5815,10 +5821,10 @@
         <v>207</v>
       </c>
       <c r="H126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I126">
-        <v>3.1926063469999999</v>
+        <v>2.9305528550000002</v>
       </c>
       <c r="J126" t="s">
         <v>10</v>
@@ -5828,21 +5834,21 @@
       </c>
       <c r="L126">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.8073936530000001</v>
+        <v>-3.0694471449999998</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="B127" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -5854,20 +5860,20 @@
         <v>207</v>
       </c>
       <c r="H127" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I127">
-        <v>4.0791812460000001</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
+        <v>3.1926063469999999</v>
+      </c>
+      <c r="J127" t="s">
+        <v>10</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L127">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.0791812460000001</v>
+        <v>-2.8073936530000001</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5893,7 +5899,7 @@
         <v>207</v>
       </c>
       <c r="H128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I128">
         <v>3.7634279940000002</v>
@@ -5932,7 +5938,7 @@
         <v>208</v>
       </c>
       <c r="H129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I129">
         <v>2.2218487499999999</v>
@@ -5950,16 +5956,16 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -5971,34 +5977,34 @@
         <v>208</v>
       </c>
       <c r="H130" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I130">
-        <v>1.826074803</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>12</v>
+        <v>3.517808343</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K130">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L130">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.173925197</v>
+        <v>0.517808343</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -6010,34 +6016,34 @@
         <v>208</v>
       </c>
       <c r="H131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I131">
-        <v>3.517808343</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
+        <v>3.9845273130000001</v>
+      </c>
+      <c r="J131" t="s">
+        <v>10</v>
       </c>
       <c r="K131">
         <v>3</v>
       </c>
       <c r="L131">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.517808343</v>
+        <v>0.98452731300000007</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D132">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
@@ -6049,34 +6055,34 @@
         <v>208</v>
       </c>
       <c r="H132" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I132">
-        <v>2.301029996</v>
+        <v>4.3304137730000001</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K132">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L132">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.698970004</v>
+        <v>1.3304137730000001</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -6088,10 +6094,10 @@
         <v>208</v>
       </c>
       <c r="H133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I133">
-        <v>3.9845273130000001</v>
+        <v>3.2206733920000001</v>
       </c>
       <c r="J133" t="s">
         <v>10</v>
@@ -6101,21 +6107,21 @@
       </c>
       <c r="L133">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.98452731300000007</v>
+        <v>0.22067339200000013</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
@@ -6127,34 +6133,34 @@
         <v>208</v>
       </c>
       <c r="H134" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I134">
-        <v>4.3010299959999996</v>
+        <v>5.5514499979999998</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K134">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L134">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.6989700040000004</v>
+        <v>2.5514499979999998</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -6166,34 +6172,34 @@
         <v>208</v>
       </c>
       <c r="H135" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I135">
-        <v>4.3304137730000001</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>11</v>
+        <v>1.826074803</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L135">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.3304137730000001</v>
+        <v>-4.173925197</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -6205,34 +6211,34 @@
         <v>208</v>
       </c>
       <c r="H136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I136">
-        <v>2.8236372219999999</v>
-      </c>
-      <c r="J136" t="s">
-        <v>10</v>
+        <v>2.301029996</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K136">
         <v>6</v>
       </c>
       <c r="L136">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.1763627780000001</v>
+        <v>-3.698970004</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="C137">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -6244,34 +6250,34 @@
         <v>208</v>
       </c>
       <c r="H137" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I137">
-        <v>3.2206733920000001</v>
-      </c>
-      <c r="J137" t="s">
-        <v>10</v>
+        <v>4.3010299959999996</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L137">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.22067339200000013</v>
+        <v>-1.6989700040000004</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -6283,10 +6289,10 @@
         <v>208</v>
       </c>
       <c r="H138" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I138">
-        <v>2.928447711</v>
+        <v>2.8236372219999999</v>
       </c>
       <c r="J138" t="s">
         <v>10</v>
@@ -6296,21 +6302,21 @@
       </c>
       <c r="L138">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.071552289</v>
+        <v>-3.1763627780000001</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -6322,20 +6328,20 @@
         <v>208</v>
       </c>
       <c r="H139" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I139">
-        <v>5.5514499979999998</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>11</v>
+        <v>2.928447711</v>
+      </c>
+      <c r="J139" t="s">
+        <v>10</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L139">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.5514499979999998</v>
+        <v>-3.071552289</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -6361,7 +6367,7 @@
         <v>208</v>
       </c>
       <c r="H140" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I140">
         <v>3.6084001689999998</v>
@@ -6400,7 +6406,7 @@
         <v>209</v>
       </c>
       <c r="H141" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I141">
         <v>3.674931763</v>
@@ -6418,16 +6424,16 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E142" t="s">
         <v>5</v>
@@ -6439,34 +6445,34 @@
         <v>209</v>
       </c>
       <c r="H142" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I142">
-        <v>2.301029996</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>11</v>
+        <v>3.5740312680000001</v>
+      </c>
+      <c r="J142" t="s">
+        <v>10</v>
       </c>
       <c r="K142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L142">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.698970004</v>
+        <v>0.57403126800000015</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
@@ -6478,34 +6484,34 @@
         <v>209</v>
       </c>
       <c r="H143" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I143">
-        <v>3.5740312680000001</v>
-      </c>
-      <c r="J143" t="s">
-        <v>10</v>
+        <v>5.6901960799999998</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K143">
         <v>3</v>
       </c>
       <c r="L143">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.57403126800000015</v>
+        <v>2.6901960799999998</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
@@ -6517,34 +6523,34 @@
         <v>209</v>
       </c>
       <c r="H144" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I144">
-        <v>4.4771212550000001</v>
+        <v>5.1743505970000001</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K144">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L144">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.5228787449999999</v>
+        <v>2.1743505970000001</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B145" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C145">
         <v>11</v>
       </c>
       <c r="D145">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E145" t="s">
         <v>5</v>
@@ -6556,10 +6562,10 @@
         <v>209</v>
       </c>
       <c r="H145" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I145">
-        <v>5.6901960799999998</v>
+        <v>3.602059991</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>11</v>
@@ -6569,21 +6575,21 @@
       </c>
       <c r="L145">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.6901960799999998</v>
+        <v>0.60205999099999996</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="B146" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D146">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
@@ -6595,34 +6601,34 @@
         <v>209</v>
       </c>
       <c r="H146" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I146">
-        <v>2.347004579</v>
-      </c>
-      <c r="J146" t="s">
-        <v>10</v>
+        <v>4.8573324959999997</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K146">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L146">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.652995421</v>
+        <v>1.8573324959999997</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -6634,34 +6640,34 @@
         <v>209</v>
       </c>
       <c r="H147" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I147">
-        <v>5.1743505970000001</v>
+        <v>2.301029996</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K147">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L147">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.1743505970000001</v>
+        <v>-3.698970004</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -6673,34 +6679,34 @@
         <v>209</v>
       </c>
       <c r="H148" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I148">
-        <v>2.4771212550000001</v>
-      </c>
-      <c r="J148" t="s">
-        <v>10</v>
+        <v>4.4771212550000001</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K148">
         <v>6</v>
       </c>
       <c r="L148">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.5228787449999999</v>
+        <v>-1.5228787449999999</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C149">
         <v>11</v>
       </c>
       <c r="D149">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -6712,34 +6718,34 @@
         <v>209</v>
       </c>
       <c r="H149" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I149">
-        <v>3.602059991</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
+        <v>2.347004579</v>
+      </c>
+      <c r="J149" t="s">
+        <v>10</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L149">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0.60205999099999996</v>
+        <v>-3.652995421</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="B150" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D150">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
@@ -6751,10 +6757,10 @@
         <v>209</v>
       </c>
       <c r="H150" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2.4771212550000001</v>
       </c>
       <c r="J150" t="s">
         <v>10</v>
@@ -6764,21 +6770,21 @@
       </c>
       <c r="L150">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3</v>
+        <v>-3.5228787449999999</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
@@ -6790,20 +6796,20 @@
         <v>209</v>
       </c>
       <c r="H151" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I151">
-        <v>4.8573324959999997</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="J151" t="s">
+        <v>10</v>
       </c>
       <c r="K151">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L151">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.8573324959999997</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -6829,7 +6835,7 @@
         <v>209</v>
       </c>
       <c r="H152" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I152">
         <v>3.204119983</v>
@@ -6868,7 +6874,7 @@
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I153">
         <v>5.8500332579999998</v>
@@ -6886,7 +6892,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B154" t="s">
         <v>133</v>
@@ -6895,7 +6901,7 @@
         <v>9</v>
       </c>
       <c r="D154">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -6907,34 +6913,34 @@
         <v>6</v>
       </c>
       <c r="H154" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I154">
-        <v>3.7781512500000001</v>
+        <v>5.8500332579999998</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L154">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.2218487499999999</v>
+        <v>2.8500332579999998</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="C155">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E155" t="s">
         <v>5</v>
@@ -6946,34 +6952,34 @@
         <v>6</v>
       </c>
       <c r="H155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I155">
-        <v>5.8500332579999998</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
+        <v>2.7057737120000001</v>
+      </c>
+      <c r="J155" t="s">
+        <v>10</v>
       </c>
       <c r="K155">
         <v>3</v>
       </c>
       <c r="L155">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.8500332579999998</v>
+        <v>-0.29422628799999995</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B156" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C156">
         <v>9</v>
       </c>
       <c r="D156">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -6985,34 +6991,34 @@
         <v>6</v>
       </c>
       <c r="H156" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I156">
-        <v>3.7781512500000001</v>
+        <v>5.8773713460000003</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K156">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L156">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.2218487499999999</v>
+        <v>2.8773713460000003</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D157">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E157" t="s">
         <v>5</v>
@@ -7024,34 +7030,34 @@
         <v>6</v>
       </c>
       <c r="H157" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I157">
-        <v>2.7057737120000001</v>
-      </c>
-      <c r="J157" t="s">
-        <v>10</v>
+        <v>5.8773713460000003</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K157">
         <v>3</v>
       </c>
       <c r="L157">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.29422628799999995</v>
+        <v>2.8773713460000003</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D158">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -7063,34 +7069,34 @@
         <v>6</v>
       </c>
       <c r="H158" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I158">
-        <v>4.3010299959999996</v>
+        <v>4.0791812460000001</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L158">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.6989700040000004</v>
+        <v>1.0791812460000001</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B159" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C159">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D159">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E159" t="s">
         <v>5</v>
@@ -7102,10 +7108,10 @@
         <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I159">
-        <v>5.8773713460000003</v>
+        <v>2.096910013</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>11</v>
@@ -7115,21 +7121,21 @@
       </c>
       <c r="L159">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.8773713460000003</v>
+        <v>-0.90308998699999998</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B160" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -7141,34 +7147,34 @@
         <v>6</v>
       </c>
       <c r="H160" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I160">
-        <v>4.9768083369999996</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L160">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.0231916630000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C161">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D161">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
@@ -7180,10 +7186,10 @@
         <v>6</v>
       </c>
       <c r="H161" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I161">
-        <v>5.8773713460000003</v>
+        <v>4.4471580309999998</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>11</v>
@@ -7193,21 +7199,21 @@
       </c>
       <c r="L161">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.8773713460000003</v>
+        <v>1.4471580309999998</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B162" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C162">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D162">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -7219,34 +7225,34 @@
         <v>6</v>
       </c>
       <c r="H162" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I162">
-        <v>4.9768083369999996</v>
+        <v>4.3304137730000001</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L162">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.0231916630000004</v>
+        <v>1.3304137730000001</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="B163" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C163">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D163">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E163" t="s">
         <v>5</v>
@@ -7258,10 +7264,10 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I163">
-        <v>4.0791812460000001</v>
+        <v>5.5514499979999998</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>11</v>
@@ -7271,21 +7277,21 @@
       </c>
       <c r="L163">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.0791812460000001</v>
+        <v>2.5514499979999998</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B164" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D164">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -7297,34 +7303,34 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I164">
-        <v>3</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>13</v>
+        <v>4.3010299959999996</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L164">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3</v>
+        <v>1.3010299959999996</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -7336,34 +7342,34 @@
         <v>6</v>
       </c>
       <c r="H165" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I165">
-        <v>2.096910013</v>
+        <v>3.7781512500000001</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K165">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L165">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.90308998699999998</v>
+        <v>-2.2218487499999999</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B166" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C166">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -7375,34 +7381,34 @@
         <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I166">
-        <v>2.9614210939999999</v>
-      </c>
-      <c r="J166" t="s">
-        <v>10</v>
+        <v>3.7781512500000001</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K166">
         <v>6</v>
       </c>
       <c r="L166">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.0385789060000001</v>
+        <v>-2.2218487499999999</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -7414,34 +7420,34 @@
         <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I167">
-        <v>3</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>13</v>
+        <v>4.3010299959999996</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K167">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L167">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>0</v>
+        <v>-1.6989700040000004</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B168" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -7453,34 +7459,34 @@
         <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I168">
-        <v>3.2624510899999999</v>
-      </c>
-      <c r="J168" t="s">
-        <v>10</v>
+        <v>4.9768083369999996</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K168">
         <v>6</v>
       </c>
       <c r="L168">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.7375489100000001</v>
+        <v>-1.0231916630000004</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D169">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E169" t="s">
         <v>5</v>
@@ -7492,34 +7498,34 @@
         <v>6</v>
       </c>
       <c r="H169" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I169">
-        <v>4.4471580309999998</v>
+        <v>4.9768083369999996</v>
       </c>
       <c r="J169" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L169">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.4471580309999998</v>
+        <v>-1.0231916630000004</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B170" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -7531,34 +7537,34 @@
         <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I170">
-        <v>3.4623979980000001</v>
-      </c>
-      <c r="J170" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="K170">
         <v>6</v>
       </c>
       <c r="L170">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.5376020019999999</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B171" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E171" t="s">
         <v>5</v>
@@ -7570,34 +7576,34 @@
         <v>6</v>
       </c>
       <c r="H171" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I171">
-        <v>4.3304137730000001</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
+        <v>2.9614210939999999</v>
+      </c>
+      <c r="J171" t="s">
+        <v>10</v>
       </c>
       <c r="K171">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L171">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.3304137730000001</v>
+        <v>-3.0385789060000001</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -7609,10 +7615,10 @@
         <v>6</v>
       </c>
       <c r="H172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I172">
-        <v>3.7267272089999999</v>
+        <v>3.2624510899999999</v>
       </c>
       <c r="J172" t="s">
         <v>10</v>
@@ -7622,21 +7628,21 @@
       </c>
       <c r="L172">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.2732727910000001</v>
+        <v>-2.7375489100000001</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B173" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D173">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
@@ -7648,34 +7654,34 @@
         <v>6</v>
       </c>
       <c r="H173" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I173">
-        <v>5.5514499979999998</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>11</v>
+        <v>3.4623979980000001</v>
+      </c>
+      <c r="J173" t="s">
+        <v>10</v>
       </c>
       <c r="K173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L173">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>2.5514499979999998</v>
+        <v>-2.5376020019999999</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B174" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D174">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -7687,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="H174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I174">
-        <v>3.8388490910000002</v>
+        <v>3.7267272089999999</v>
       </c>
       <c r="J174" t="s">
         <v>10</v>
@@ -7700,21 +7706,21 @@
       </c>
       <c r="L174">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.1611509089999998</v>
+        <v>-2.2732727910000001</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B175" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C175">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D175">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
@@ -7726,20 +7732,20 @@
         <v>6</v>
       </c>
       <c r="H175" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I175">
-        <v>4.3010299959999996</v>
-      </c>
-      <c r="J175" s="3" t="s">
-        <v>11</v>
+        <v>3.8388490910000002</v>
+      </c>
+      <c r="J175" t="s">
+        <v>10</v>
       </c>
       <c r="K175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L175">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.3010299959999996</v>
+        <v>-2.1611509089999998</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -7765,7 +7771,7 @@
         <v>6</v>
       </c>
       <c r="H176" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I176">
         <v>4.5076105770000003</v>
@@ -7781,7 +7787,7 @@
         <v>-1.4923894229999997</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -7804,7 +7810,7 @@
         <v>210</v>
       </c>
       <c r="H177" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I177">
         <v>5.5514499979999998</v>
@@ -7813,7 +7819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>39</v>
       </c>
@@ -7836,7 +7842,7 @@
         <v>210</v>
       </c>
       <c r="H178" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I178">
         <v>3.2590654940000001</v>
@@ -7847,94 +7853,94 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="B179" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C179">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D179">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E179" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F179" t="s">
         <v>26</v>
       </c>
       <c r="G179" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H179" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I179">
-        <v>1.6882461390000001</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>12</v>
+        <v>5.3909351069999998</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K179">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L179">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.3117538609999997</v>
+        <v>1.3909351069999998</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="B180" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D180">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E180" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F180" t="s">
         <v>26</v>
       </c>
       <c r="G180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H180" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I180">
-        <v>2.1529674600000002</v>
+        <v>4.826074803</v>
       </c>
       <c r="J180" t="s">
         <v>10</v>
       </c>
       <c r="K180">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L180">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.8470325399999998</v>
+        <v>-2.173925197</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D181">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E181" t="s">
         <v>3</v>
@@ -7946,34 +7952,34 @@
         <v>212</v>
       </c>
       <c r="H181" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I181">
-        <v>2.2218487499999999</v>
-      </c>
-      <c r="J181" t="s">
-        <v>10</v>
+        <v>1.6882461390000001</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K181">
         <v>6</v>
       </c>
       <c r="L181">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.7781512500000001</v>
+        <v>-4.3117538609999997</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="B182" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D182">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E182" t="s">
         <v>3</v>
@@ -7985,10 +7991,10 @@
         <v>212</v>
       </c>
       <c r="H182" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I182">
-        <v>2.698970004</v>
+        <v>2.1529674600000002</v>
       </c>
       <c r="J182" t="s">
         <v>10</v>
@@ -7998,21 +8004,21 @@
       </c>
       <c r="L182">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.301029996</v>
+        <v>-3.8470325399999998</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B183" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C183">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D183">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E183" t="s">
         <v>3</v>
@@ -8024,34 +8030,34 @@
         <v>212</v>
       </c>
       <c r="H183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I183">
-        <v>1.795880017</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
+        <v>2.2218487499999999</v>
+      </c>
+      <c r="J183" t="s">
+        <v>10</v>
       </c>
       <c r="K183">
         <v>6</v>
       </c>
       <c r="L183">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.204119983</v>
+        <v>-3.7781512500000001</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B184" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C184">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E184" t="s">
         <v>3</v>
@@ -8063,10 +8069,10 @@
         <v>212</v>
       </c>
       <c r="H184" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I184">
-        <v>2.9614210939999999</v>
+        <v>2.698970004</v>
       </c>
       <c r="J184" t="s">
         <v>10</v>
@@ -8076,21 +8082,21 @@
       </c>
       <c r="L184">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.0385789060000001</v>
+        <v>-3.301029996</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D185">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E185" t="s">
         <v>3</v>
@@ -8102,34 +8108,34 @@
         <v>212</v>
       </c>
       <c r="H185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I185">
-        <v>1.161327416</v>
-      </c>
-      <c r="J185" t="s">
-        <v>10</v>
+        <v>1.795880017</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K185">
         <v>6</v>
       </c>
       <c r="L185">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.8386725840000002</v>
+        <v>-4.204119983</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D186">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E186" t="s">
         <v>3</v>
@@ -8141,10 +8147,10 @@
         <v>212</v>
       </c>
       <c r="H186" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I186">
-        <v>3.1858253599999999</v>
+        <v>2.9614210939999999</v>
       </c>
       <c r="J186" t="s">
         <v>10</v>
@@ -8154,21 +8160,21 @@
       </c>
       <c r="L186">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.8141746400000001</v>
+        <v>-3.0385789060000001</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B187" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="C187">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D187">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E187" t="s">
         <v>3</v>
@@ -8180,34 +8186,34 @@
         <v>212</v>
       </c>
       <c r="H187" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I187">
-        <v>2.096910013</v>
-      </c>
-      <c r="J187" s="3" t="s">
-        <v>11</v>
+        <v>1.161327416</v>
+      </c>
+      <c r="J187" t="s">
+        <v>10</v>
       </c>
       <c r="K187">
         <v>6</v>
       </c>
       <c r="L187">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.903089987</v>
+        <v>-4.8386725840000002</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B188" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D188">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E188" t="s">
         <v>3</v>
@@ -8219,10 +8225,10 @@
         <v>212</v>
       </c>
       <c r="H188" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I188">
-        <v>3.2624510899999999</v>
+        <v>3.1858253599999999</v>
       </c>
       <c r="J188" t="s">
         <v>10</v>
@@ -8232,88 +8238,88 @@
       </c>
       <c r="L188">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.7375489100000001</v>
+        <v>-2.8141746400000001</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D189">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E189" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F189" t="s">
         <v>26</v>
       </c>
       <c r="G189" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H189" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I189">
-        <v>5.3909351069999998</v>
+        <v>2.096910013</v>
       </c>
       <c r="J189" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K189">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L189">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>1.3909351069999998</v>
+        <v>-3.903089987</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B190" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D190">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E190" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F190" t="s">
         <v>26</v>
       </c>
       <c r="G190" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H190" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I190">
-        <v>4.826074803</v>
+        <v>3.2624510899999999</v>
       </c>
       <c r="J190" t="s">
         <v>10</v>
       </c>
       <c r="K190">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L190">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.173925197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-2.7375489100000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>114</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>9</v>
       </c>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I191">
         <v>1.278071674</v>
@@ -8345,7 +8351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>114</v>
       </c>
@@ -8368,7 +8374,7 @@
         <v>9</v>
       </c>
       <c r="H192" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I192">
         <v>2.3654879850000001</v>
@@ -8377,7 +8383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>61</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>9</v>
       </c>
       <c r="H193" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I193">
         <v>3.7781512500000001</v>
@@ -8409,7 +8415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>61</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>9</v>
       </c>
       <c r="H194" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I194">
         <v>3.1251558300000002</v>
@@ -8441,7 +8447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>50</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>9</v>
       </c>
       <c r="H195" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I195">
         <v>4.3304137730000001</v>
@@ -8473,7 +8479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>50</v>
       </c>
@@ -8496,7 +8502,7 @@
         <v>9</v>
       </c>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I196">
         <v>4.1858253599999999</v>
@@ -8505,7 +8511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>144</v>
       </c>
@@ -8528,7 +8534,7 @@
         <v>9</v>
       </c>
       <c r="H197" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I197">
         <v>3.73124331</v>
@@ -8537,7 +8543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>144</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>9</v>
       </c>
       <c r="H198" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I198">
         <v>4.9768083369999996</v>
@@ -8569,7 +8575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>25</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>9</v>
       </c>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I199">
         <v>1.36239256</v>
@@ -8601,7 +8607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>25</v>
       </c>
@@ -8624,7 +8630,7 @@
         <v>9</v>
       </c>
       <c r="H200" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I200">
         <v>5.8451760999999998E-2</v>
@@ -8633,7 +8639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>189</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>9</v>
       </c>
       <c r="H201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I201">
         <v>2.5211097229999999</v>
@@ -8665,7 +8671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>189</v>
       </c>
@@ -8688,7 +8694,7 @@
         <v>9</v>
       </c>
       <c r="H202" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I202">
         <v>0.13748956500000001</v>
@@ -8697,7 +8703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>83</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>9</v>
       </c>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I203">
         <v>2.0052642399999998</v>
@@ -8729,7 +8735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>83</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v>9</v>
       </c>
       <c r="H204" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I204">
         <v>1.045757491</v>
@@ -8761,7 +8767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>71</v>
       </c>
@@ -8784,7 +8790,7 @@
         <v>9</v>
       </c>
       <c r="H205" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I205">
         <v>0.8569852</v>
@@ -8793,7 +8799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>71</v>
       </c>
@@ -8816,7 +8822,7 @@
         <v>9</v>
       </c>
       <c r="H206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I206">
         <v>2.9797966140000001</v>
@@ -8825,7 +8831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>86</v>
       </c>
@@ -8848,7 +8854,7 @@
         <v>9</v>
       </c>
       <c r="H207" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I207">
         <v>2.0457574909999998</v>
@@ -8857,7 +8863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>86</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>9</v>
       </c>
       <c r="H208" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I208">
         <v>3.10720997</v>
@@ -8889,7 +8895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>9</v>
       </c>
       <c r="H209" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I209">
         <v>3.5740312680000001</v>
@@ -8921,7 +8927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>33</v>
       </c>
@@ -8944,7 +8950,7 @@
         <v>9</v>
       </c>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I210">
         <v>3.8750612630000001</v>
@@ -8953,7 +8959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>128</v>
       </c>
@@ -8976,7 +8982,7 @@
         <v>9</v>
       </c>
       <c r="H211" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I211">
         <v>4.3802112419999997</v>
@@ -8985,7 +8991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>128</v>
       </c>
@@ -9008,7 +9014,7 @@
         <v>9</v>
       </c>
       <c r="H212" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I212">
         <v>4.0791812460000001</v>
@@ -9017,7 +9023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>9</v>
       </c>
       <c r="H213" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I213">
         <v>1.609064893</v>
@@ -9049,7 +9055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -9072,7 +9078,7 @@
         <v>9</v>
       </c>
       <c r="H214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I214">
         <v>4.1760912589999997</v>
@@ -9081,7 +9087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>145</v>
       </c>
@@ -9104,7 +9110,7 @@
         <v>9</v>
       </c>
       <c r="H215" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I215">
         <v>3.7701613759999999</v>
@@ -9113,7 +9119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>145</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>9</v>
       </c>
       <c r="H216" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I216">
         <v>4.6757783420000001</v>
@@ -9145,7 +9151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>74</v>
       </c>
@@ -9168,7 +9174,7 @@
         <v>214</v>
       </c>
       <c r="H217" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I217">
         <v>1.924335328</v>
@@ -9177,7 +9183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>74</v>
       </c>
@@ -9200,7 +9206,7 @@
         <v>214</v>
       </c>
       <c r="H218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -9232,7 +9238,7 @@
         <v>215</v>
       </c>
       <c r="H219" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I219">
         <v>4.3010299959999996</v>
@@ -9271,7 +9277,7 @@
         <v>215</v>
       </c>
       <c r="H220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I220">
         <v>5.0718820070000001</v>
@@ -9310,7 +9316,7 @@
         <v>216</v>
       </c>
       <c r="H221" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I221">
         <v>5.6901960799999998</v>
@@ -9328,16 +9334,16 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="B222" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C222">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D222">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -9349,25 +9355,25 @@
         <v>216</v>
       </c>
       <c r="H222" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I222">
-        <v>3.1251558300000002</v>
+        <v>5.2355284470000001</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K222">
-        <v>8.56</v>
+        <v>7.09</v>
       </c>
       <c r="L222">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-5.4348441699999999</v>
+        <v>-1.8544715529999998</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B223" t="s">
         <v>116</v>
@@ -9376,7 +9382,7 @@
         <v>8</v>
       </c>
       <c r="D223">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E223" t="s">
         <v>5</v>
@@ -9388,7 +9394,7 @@
         <v>216</v>
       </c>
       <c r="H223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I223">
         <v>5.2355284470000001</v>
@@ -9406,16 +9412,16 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B224" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C224">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D224">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -9427,34 +9433,34 @@
         <v>216</v>
       </c>
       <c r="H224" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I224">
-        <v>4</v>
-      </c>
-      <c r="J224" s="3" t="s">
-        <v>11</v>
+        <v>2.5228787449999999</v>
+      </c>
+      <c r="J224" t="s">
+        <v>10</v>
       </c>
       <c r="K224">
-        <v>8.56</v>
+        <v>7.09</v>
       </c>
       <c r="L224">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.5600000000000005</v>
+        <v>-4.567121255</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B225" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C225">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E225" t="s">
         <v>5</v>
@@ -9466,34 +9472,34 @@
         <v>216</v>
       </c>
       <c r="H225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I225">
-        <v>5.2355284470000001</v>
-      </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
+        <v>3.9135835189999999</v>
+      </c>
+      <c r="J225" t="s">
+        <v>10</v>
       </c>
       <c r="K225">
         <v>7.09</v>
       </c>
       <c r="L225">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.8544715529999998</v>
+        <v>-3.176416481</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B226" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C226">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E226" t="s">
         <v>5</v>
@@ -9505,34 +9511,34 @@
         <v>216</v>
       </c>
       <c r="H226" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I226">
-        <v>3.698970004</v>
+        <v>4.129183319</v>
       </c>
       <c r="J226" t="s">
         <v>10</v>
       </c>
       <c r="K226">
-        <v>8.56</v>
+        <v>7.09</v>
       </c>
       <c r="L226">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.861029996000001</v>
+        <v>-2.9608166809999998</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="B227" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="C227">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D227">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E227" t="s">
         <v>5</v>
@@ -9544,34 +9550,34 @@
         <v>216</v>
       </c>
       <c r="H227" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I227">
-        <v>2.5228787449999999</v>
-      </c>
-      <c r="J227" t="s">
-        <v>10</v>
+        <v>3.1251558300000002</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K227">
-        <v>7.09</v>
+        <v>8.56</v>
       </c>
       <c r="L227">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.567121255</v>
+        <v>-5.4348441699999999</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B228" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D228">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -9583,34 +9589,34 @@
         <v>216</v>
       </c>
       <c r="H228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I228">
-        <v>4.0211892990000004</v>
-      </c>
-      <c r="J228" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K228">
         <v>8.56</v>
       </c>
       <c r="L228">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.5388107010000001</v>
+        <v>-4.5600000000000005</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B229" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C229">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D229">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E229" t="s">
         <v>5</v>
@@ -9622,34 +9628,34 @@
         <v>216</v>
       </c>
       <c r="H229" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I229">
-        <v>3.9135835189999999</v>
+        <v>3.698970004</v>
       </c>
       <c r="J229" t="s">
         <v>10</v>
       </c>
       <c r="K229">
-        <v>7.09</v>
+        <v>8.56</v>
       </c>
       <c r="L229">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.176416481</v>
+        <v>-4.861029996000001</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="B230" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C230">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D230">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -9661,10 +9667,10 @@
         <v>216</v>
       </c>
       <c r="H230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I230">
-        <v>4.07371835</v>
+        <v>4.0211892990000004</v>
       </c>
       <c r="J230" t="s">
         <v>10</v>
@@ -9674,12 +9680,12 @@
       </c>
       <c r="L230">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.4862816500000005</v>
+        <v>-4.5388107010000001</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B231" t="s">
         <v>142</v>
@@ -9688,7 +9694,7 @@
         <v>9</v>
       </c>
       <c r="D231">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E231" t="s">
         <v>5</v>
@@ -9700,20 +9706,20 @@
         <v>216</v>
       </c>
       <c r="H231" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I231">
-        <v>4.129183319</v>
+        <v>4.07371835</v>
       </c>
       <c r="J231" t="s">
         <v>10</v>
       </c>
       <c r="K231">
-        <v>7.09</v>
+        <v>8.56</v>
       </c>
       <c r="L231">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.9608166809999998</v>
+        <v>-4.4862816500000005</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -9739,7 +9745,7 @@
         <v>216</v>
       </c>
       <c r="H232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I232">
         <v>4.6757783420000001</v>
@@ -9778,7 +9784,7 @@
         <v>217</v>
       </c>
       <c r="H233" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I233">
         <v>5.6901960799999998</v>
@@ -9796,16 +9802,16 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="B234" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C234">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D234">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -9817,34 +9823,34 @@
         <v>217</v>
       </c>
       <c r="H234" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I234">
-        <v>3.1251558300000002</v>
-      </c>
-      <c r="J234" s="3" t="s">
-        <v>11</v>
+        <v>3.3288951739999999</v>
+      </c>
+      <c r="J234" t="s">
+        <v>10</v>
       </c>
       <c r="K234">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L234">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.8748441699999998</v>
+        <v>-2.6711048260000001</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="B235" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="C235">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E235" t="s">
         <v>5</v>
@@ -9856,10 +9862,10 @@
         <v>217</v>
       </c>
       <c r="H235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I235">
-        <v>3.3288951739999999</v>
+        <v>3.9845273130000001</v>
       </c>
       <c r="J235" t="s">
         <v>10</v>
@@ -9869,21 +9875,21 @@
       </c>
       <c r="L235">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.6711048260000001</v>
+        <v>-2.0154726869999999</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B236" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="C236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D236">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -9895,34 +9901,34 @@
         <v>217</v>
       </c>
       <c r="H236" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I236">
-        <v>2.0791812460000001</v>
-      </c>
-      <c r="J236" t="s">
-        <v>10</v>
+        <v>4.0791812460000001</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K236">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L236">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.9208187539999999</v>
+        <v>-1.9208187539999999</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B237" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D237">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E237" t="s">
         <v>5</v>
@@ -9934,10 +9940,10 @@
         <v>217</v>
       </c>
       <c r="H237" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I237">
-        <v>3.9845273130000001</v>
+        <v>3.301029996</v>
       </c>
       <c r="J237" t="s">
         <v>10</v>
@@ -9947,21 +9953,21 @@
       </c>
       <c r="L237">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.0154726869999999</v>
+        <v>-2.698970004</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="B238" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D238">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -9973,34 +9979,34 @@
         <v>217</v>
       </c>
       <c r="H238" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I238">
-        <v>2.1426675039999998</v>
-      </c>
-      <c r="J238" t="s">
-        <v>10</v>
+        <v>5.2355284470000001</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K238">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L238">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.8573324959999997</v>
+        <v>-0.76447155299999991</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="B239" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D239">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E239" t="s">
         <v>5</v>
@@ -10012,34 +10018,34 @@
         <v>217</v>
       </c>
       <c r="H239" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I239">
-        <v>4.0791812460000001</v>
+        <v>3.1251558300000002</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K239">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L239">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-1.9208187539999999</v>
+        <v>-3.8748441699999998</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B240" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D240">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -10051,10 +10057,10 @@
         <v>217</v>
       </c>
       <c r="H240" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I240">
-        <v>2.8603380070000002</v>
+        <v>2.0791812460000001</v>
       </c>
       <c r="J240" t="s">
         <v>10</v>
@@ -10064,21 +10070,21 @@
       </c>
       <c r="L240">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-4.1396619929999998</v>
+        <v>-4.9208187539999999</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D241">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E241" t="s">
         <v>5</v>
@@ -10090,34 +10096,34 @@
         <v>217</v>
       </c>
       <c r="H241" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I241">
-        <v>3.301029996</v>
+        <v>2.1426675039999998</v>
       </c>
       <c r="J241" t="s">
         <v>10</v>
       </c>
       <c r="K241">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L241">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-2.698970004</v>
+        <v>-4.8573324959999997</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B242" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D242">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -10129,10 +10135,10 @@
         <v>217</v>
       </c>
       <c r="H242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I242">
-        <v>3.3679767850000002</v>
+        <v>2.8603380070000002</v>
       </c>
       <c r="J242" t="s">
         <v>10</v>
@@ -10142,21 +10148,21 @@
       </c>
       <c r="L242">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-3.6320232149999998</v>
+        <v>-4.1396619929999998</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B243" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C243">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D243">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E243" t="s">
         <v>5</v>
@@ -10168,20 +10174,20 @@
         <v>217</v>
       </c>
       <c r="H243" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I243">
-        <v>5.2355284470000001</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>11</v>
+        <v>3.3679767850000002</v>
+      </c>
+      <c r="J243" t="s">
+        <v>10</v>
       </c>
       <c r="K243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L243">
         <f>Table14[[#This Row],[LRV_field]]-Table14[[#This Row],[LRV_manuf]]</f>
-        <v>-0.76447155299999991</v>
+        <v>-3.6320232149999998</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -10207,7 +10213,7 @@
         <v>217</v>
       </c>
       <c r="H244" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I244">
         <v>3.698970004</v>
@@ -10223,7 +10229,7 @@
         <v>-3.301029996</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>62</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>218</v>
       </c>
       <c r="H245" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I245">
         <v>1.6882461390000001</v>
@@ -10255,7 +10261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>62</v>
       </c>
@@ -10278,7 +10284,7 @@
         <v>218</v>
       </c>
       <c r="H246" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I246">
         <v>1.0045818980000001</v>
@@ -10287,7 +10293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>110</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>219</v>
       </c>
       <c r="H247" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I247">
         <v>4.4471580309999998</v>
@@ -10319,7 +10325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>110</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>219</v>
       </c>
       <c r="H248" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I248">
         <v>5.0644579890000001</v>
@@ -10374,7 +10380,7 @@
         <v>7</v>
       </c>
       <c r="H249" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I249">
         <v>1.924335328</v>
@@ -10413,7 +10419,7 @@
         <v>7</v>
       </c>
       <c r="H250" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -10452,7 +10458,7 @@
         <v>7</v>
       </c>
       <c r="H251" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I251">
         <v>5.0200865620000004</v>
@@ -10491,7 +10497,7 @@
         <v>7</v>
       </c>
       <c r="H252" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I252">
         <v>1.2730012719999999</v>
@@ -10530,7 +10536,7 @@
         <v>7</v>
       </c>
       <c r="H253" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I253">
         <v>1.6882461390000001</v>
@@ -10569,7 +10575,7 @@
         <v>7</v>
       </c>
       <c r="H254" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I254">
         <v>1.5274263729999999</v>
@@ -10608,7 +10614,7 @@
         <v>7</v>
       </c>
       <c r="H255" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I255">
         <v>2.265955784</v>
@@ -10647,7 +10653,7 @@
         <v>7</v>
       </c>
       <c r="H256" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I256">
         <v>3.282735373</v>
@@ -10686,7 +10692,7 @@
         <v>7</v>
       </c>
       <c r="H257" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I257">
         <v>2.47290477</v>
@@ -10725,7 +10731,7 @@
         <v>7</v>
       </c>
       <c r="H258" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I258">
         <v>3.1926063469999999</v>
@@ -10761,10 +10767,10 @@
         <v>191</v>
       </c>
       <c r="G259" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H259" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I259">
         <v>3.255627176</v>
@@ -10800,10 +10806,10 @@
         <v>191</v>
       </c>
       <c r="G260" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H260" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I260">
         <v>3.1251558300000002</v>
@@ -10819,7 +10825,7 @@
         <v>-3.8748441699999998</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>81</v>
       </c>
@@ -10839,10 +10845,10 @@
         <v>82</v>
       </c>
       <c r="G261" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H261" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I261">
         <v>3.1409268419999998</v>
@@ -10851,7 +10857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>81</v>
       </c>
@@ -10871,10 +10877,10 @@
         <v>82</v>
       </c>
       <c r="G262" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H262" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I262">
         <v>1.134698574</v>
@@ -10903,10 +10909,10 @@
         <v>188</v>
       </c>
       <c r="G263" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H263" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I263">
         <v>5.6901960799999998</v>
@@ -10942,10 +10948,10 @@
         <v>188</v>
       </c>
       <c r="G264" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H264" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I264">
         <v>2.8241258340000002</v>
